--- a/R/raw_data/source_data/PSE-Database_Study_level_descriptives.xlsx
+++ b/R/raw_data/source_data/PSE-Database_Study_level_descriptives.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="79">
   <si>
     <t xml:space="preserve">Study ID</t>
   </si>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">2014-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Osnabrück</t>
-  </si>
-  <si>
-    <t xml:space="preserve">computer-written in lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">individual</t>
+    <t xml:space="preserve">de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
   </si>
   <si>
     <t xml:space="preserve">mostly students</t>
@@ -104,10 +104,7 @@
     <t xml:space="preserve">2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Munich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">computer-written online study</t>
+    <t xml:space="preserve">CO</t>
   </si>
   <si>
     <t xml:space="preserve">students</t>
@@ -119,13 +116,10 @@
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Erlangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">handwritten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -134,9 +128,6 @@
     <t xml:space="preserve">FS_MOCO</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
     <t xml:space="preserve">mostly non-students</t>
   </si>
   <si>
@@ -164,10 +155,7 @@
     <t xml:space="preserve">2016-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Göttingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">computer-written in lab; computer-written online study</t>
+    <t xml:space="preserve">CL &amp; CO</t>
   </si>
   <si>
     <t xml:space="preserve">KJ</t>
@@ -242,7 +230,7 @@
     <t xml:space="preserve">Trier</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland</t>
+    <t xml:space="preserve">ch</t>
   </si>
   <si>
     <t xml:space="preserve">TC_SNF7</t>
@@ -251,9 +239,6 @@
     <t xml:space="preserve">TC_TAI1</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland </t>
-  </si>
-  <si>
     <t xml:space="preserve">LS</t>
   </si>
   <si>
@@ -261,6 +246,18 @@
   </si>
   <si>
     <t xml:space="preserve">Untitled Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Osnabrück)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Munich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Erlangen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Göttingen)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,6 +400,10 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -484,12 +485,12 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,8 +499,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="46.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.01"/>
@@ -562,7 +563,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -604,7 +605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -630,25 +631,25 @@
         <v>26</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>287</v>
@@ -669,28 +670,28 @@
         <v>17</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1009</v>
@@ -714,25 +715,25 @@
         <v>26</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>276</v>
@@ -750,31 +751,31 @@
         <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>578</v>
@@ -786,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -795,10 +796,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>20</v>
@@ -807,16 +808,16 @@
         <v>21</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>3989</v>
@@ -834,31 +835,31 @@
         <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>671</v>
@@ -873,16 +874,16 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
@@ -891,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="4" t="s">
@@ -900,7 +901,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -917,13 +918,13 @@
         <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>21</v>
@@ -936,9 +937,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>804</v>
@@ -953,16 +954,16 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>20</v>
@@ -971,16 +972,16 @@
         <v>21</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>600</v>
@@ -995,16 +996,16 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>20</v>
@@ -1013,16 +1014,16 @@
         <v>21</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>773</v>
@@ -1037,16 +1038,16 @@
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>20</v>
@@ -1055,16 +1056,16 @@
         <v>21</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>149</v>
@@ -1085,10 +1086,10 @@
         <v>17</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>20</v>
@@ -1106,9 +1107,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>486</v>
@@ -1129,28 +1130,28 @@
         <v>17</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>825</v>
@@ -1162,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -1171,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>21</v>
@@ -1190,9 +1191,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>653</v>
@@ -1207,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>20</v>
@@ -1234,9 +1235,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>984</v>
@@ -1248,19 +1249,19 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>20</v>
@@ -1278,9 +1279,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>930</v>
@@ -1292,19 +1293,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>20</v>
@@ -1322,9 +1323,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>888</v>
@@ -1339,16 +1340,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>20</v>
@@ -1368,7 +1369,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>893</v>
@@ -1380,19 +1381,19 @@
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>20</v>
@@ -1410,9 +1411,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>1772</v>
@@ -1433,28 +1434,28 @@
         <v>17</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>698</v>
@@ -1472,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>20</v>
@@ -1487,16 +1488,16 @@
         <v>21</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>676</v>
@@ -1508,37 +1509,37 @@
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>1211</v>
@@ -1550,22 +1551,22 @@
         <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>21</v>
@@ -1578,9 +1579,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>981</v>
@@ -1592,28 +1593,28 @@
         <v>6</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="0" t="s">
@@ -1622,7 +1623,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>6</v>
@@ -1637,19 +1638,19 @@
         <v>17</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="0" t="s">
@@ -1672,12 +1673,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1688,10 +1689,140 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>79</v>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/R/raw_data/source_data/PSE-Database_Study_level_descriptives.xlsx
+++ b/R/raw_data/source_data/PSE-Database_Study_level_descriptives.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="81">
   <si>
     <t xml:space="preserve">Study ID</t>
   </si>
@@ -155,6 +155,9 @@
     <t xml:space="preserve">2016-2018</t>
   </si>
   <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CL &amp; CO</t>
   </si>
   <si>
@@ -230,34 +233,37 @@
     <t xml:space="preserve">Trier</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SNF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_TAI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untitled Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Osnabrück)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Munich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Erlangen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Göttingen)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_SNF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_TAI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untitled Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Osnabrück)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Munich)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Erlangen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Göttingen)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,7 +506,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="46.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="46.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.01"/>
@@ -841,10 +847,10 @@
         <v>43</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
@@ -859,7 +865,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>671</v>
@@ -874,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
@@ -883,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
@@ -901,7 +907,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -918,10 +924,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>27</v>
@@ -939,7 +945,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>804</v>
@@ -954,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>37</v>
@@ -963,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>20</v>
@@ -972,7 +978,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="4" t="s">
@@ -981,7 +987,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>600</v>
@@ -996,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>37</v>
@@ -1005,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>20</v>
@@ -1014,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="4" t="s">
@@ -1023,7 +1029,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>773</v>
@@ -1038,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>37</v>
@@ -1047,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>20</v>
@@ -1056,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="4" t="s">
@@ -1065,7 +1071,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>149</v>
@@ -1089,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>20</v>
@@ -1109,7 +1115,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>486</v>
@@ -1130,10 +1136,10 @@
         <v>17</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>27</v>
@@ -1151,7 +1157,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>825</v>
@@ -1175,7 +1181,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>27</v>
@@ -1193,7 +1199,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>653</v>
@@ -1208,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>37</v>
@@ -1217,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>20</v>
@@ -1237,7 +1243,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>984</v>
@@ -1252,16 +1258,16 @@
         <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>20</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>930</v>
@@ -1296,7 +1302,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>37</v>
@@ -1305,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>20</v>
@@ -1325,7 +1331,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>888</v>
@@ -1340,16 +1346,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>20</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>893</v>
@@ -1384,16 +1390,16 @@
         <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>20</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>1772</v>
@@ -1434,10 +1440,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>27</v>
@@ -1446,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="4" t="s">
@@ -1455,7 +1461,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>698</v>
@@ -1479,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>20</v>
@@ -1497,7 +1503,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>676</v>
@@ -1512,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>17</v>
@@ -1521,7 +1527,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>27</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>1211</v>
@@ -1554,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>17</v>
@@ -1563,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>27</v>
@@ -1581,7 +1587,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>981</v>
@@ -1596,7 +1602,7 @@
         <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
@@ -1605,7 +1611,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>27</v>
@@ -1623,7 +1629,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>6</v>
@@ -1638,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>27</v>
@@ -1650,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="0" t="s">
@@ -1689,25 +1695,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,47 +1728,47 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,27 +1778,27 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,22 +1808,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/R/raw_data/source_data/PSE-Database_Study_level_descriptives.xlsx
+++ b/R/raw_data/source_data/PSE-Database_Study_level_descriptives.xlsx
@@ -80,184 +80,184 @@
     <t xml:space="preserve">2014-2015</t>
   </si>
   <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostly students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS_ErlSem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS_MOCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostly non-students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS_newpic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS_TSST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd_sentence_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL &amp; CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erlangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCS_Bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCS_smofee6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCS_smofee7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCS_smofee8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCS_smofee9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">students and non-students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SNF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_SNF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_TAI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untitled Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Osnabrück)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Munich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de (Erlangen)</t>
+  </si>
+  <si>
     <t xml:space="preserve">de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostly students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS_ErlSem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS_MOCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostly non-students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS_newpic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS_TSST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd_sentence_rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL &amp; CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erlangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCS_Bp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCS_smofee6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCS_smofee7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCS_smofee8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCS_smofee9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">students and non-students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_SNF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_SNF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_TAI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untitled Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Osnabrück)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Munich)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de (Erlangen)</t>
   </si>
   <si>
     <t xml:space="preserve">de (Göttingen)</t>
@@ -492,11 +492,11 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I31" activeCellId="0" sqref="I31"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" activeCellId="0" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,10 +847,10 @@
         <v>43</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>671</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
@@ -889,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>20</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -924,10 +924,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>27</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>804</v>
@@ -960,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>37</v>
@@ -969,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>20</v>
@@ -978,7 +978,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="4" t="s">
@@ -987,7 +987,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>600</v>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>37</v>
@@ -1011,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>20</v>
@@ -1020,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="4" t="s">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>773</v>
@@ -1044,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>37</v>
@@ -1053,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>20</v>
@@ -1062,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="4" t="s">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>149</v>
@@ -1095,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>20</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>486</v>
@@ -1136,10 +1136,10 @@
         <v>17</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>27</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>825</v>
@@ -1181,7 +1181,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>27</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>653</v>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>37</v>
@@ -1223,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>20</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>984</v>
@@ -1258,16 +1258,16 @@
         <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>20</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>930</v>
@@ -1302,7 +1302,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>37</v>
@@ -1311,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>20</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>888</v>
@@ -1346,16 +1346,16 @@
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>20</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>893</v>
@@ -1390,16 +1390,16 @@
         <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>20</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>1772</v>
@@ -1440,10 +1440,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>27</v>
@@ -1452,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="4" t="s">
@@ -1461,7 +1461,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>698</v>
@@ -1485,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>20</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>676</v>
@@ -1518,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
         <v>30</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>27</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>1211</v>
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>17</v>
@@ -1569,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>27</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>981</v>
@@ -1602,7 +1602,7 @@
         <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
@@ -1611,7 +1611,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>27</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>6</v>
@@ -1644,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>27</v>
@@ -1656,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="0" t="s">
@@ -1684,7 +1684,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="I2:I6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,40 +1695,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,77 +1738,77 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
